--- a/Datos/Database by set/Set with text box/Xlsx sets/M15 Prerelease Challenge (PPC1).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/M15 Prerelease Challenge (PPC1).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,70 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Garruk the Slayer</t>
+          <t>('Garruk the Slayer', ['Legendary Planeswalker — Garruk', '0: Put a 2/2 green Wolf creature token onto the battlefield.', '+4: Target Wolf creature gets +1/+0 and gains deathtouch until end of turn.', '−10: Destroy target creature. Put loyalty counters on Garruk the Slayer equal to that creature’s toughness.', '−25: Destroy all creatures Garruk the Slayer doesn’t control.', 'Loyalty: 20'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Legendary Planeswalker — Garruk</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0: Put a 2/2 green Wolf creature token onto the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>+4: Target Wolf creature gets +1/+0 and gains deathtouch until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>−10: Destroy target creature. Put loyalty counters on Garruk the Slayer equal to that creature’s toughness.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>−25: Destroy all creatures Garruk the Slayer doesn’t control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Loyalty: 20</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Token Creature — Wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Wolf', ['Token Creature — Wolf', '2/2'])</t>
         </is>
       </c>
     </row>
